--- a/Sensor_Node/Sensor_Boards/Sensor_Board_0x07_Heat_Flux_v2/BOM_Sensor_Board_0x07_Heat_Flux_v2.xlsx
+++ b/Sensor_Node/Sensor_Boards/Sensor_Board_0x07_Heat_Flux_v2/BOM_Sensor_Board_0x07_Heat_Flux_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4266947F-6259-4A5B-9666-4E564D62BF38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A940DEA-1EDA-4555-9361-D384429B0272}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,15 +196,9 @@
     <t>AMP 4pin connector</t>
   </si>
   <si>
-    <t>AMP 5pin connector</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/en/te-connectivity-amp-connectors/5147733-4/A111251CT-ND/4142637</t>
-  </si>
-  <si>
     <t>Debug LED</t>
   </si>
   <si>
@@ -227,6 +221,12 @@
   </si>
   <si>
     <t xml:space="preserve">Total price: </t>
+  </si>
+  <si>
+    <t>SPI Pin Header</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/short/39mz0t</t>
   </si>
 </sst>
 </file>
@@ -368,6 +368,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -383,7 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,14 +708,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -823,14 +823,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -854,14 +854,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -948,14 +948,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1063,14 +1063,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1115,14 +1115,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1146,52 +1146,51 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="E28" s="4">
-        <f>D28*C28</f>
-        <v>0.93</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1204,15 +1203,15 @@
         <v>0.38</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1225,14 +1224,14 @@
         <v>0.1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="19">
+        <v>66</v>
+      </c>
+      <c r="B33" s="12">
         <f>SUM(E4:E8)+E10+SUM(E12:E15)+SUM(E17:E21)+SUM(E23:E24)+SUM(E30:E31)+E26+E28</f>
         <v>14.680000000000001</v>
       </c>
@@ -1264,10 +1263,10 @@
     <hyperlink ref="F21" r:id="rId13" xr:uid="{307116BC-6DDD-4921-B9E9-87EF456DF22B}"/>
     <hyperlink ref="F23" r:id="rId14" xr:uid="{BFD02D98-3E83-4C23-B6F8-CD959AACFEC0}"/>
     <hyperlink ref="F24" r:id="rId15" xr:uid="{04AB51B2-C925-40D0-AED0-905164E40FF4}"/>
-    <hyperlink ref="F28" r:id="rId16" xr:uid="{14974A85-CBF4-41CB-AC03-A3405DEE8F60}"/>
-    <hyperlink ref="F30" r:id="rId17" xr:uid="{8BF0E553-900D-4BB1-B841-8A74CD9F4234}"/>
-    <hyperlink ref="F31" r:id="rId18" xr:uid="{7A27F3FC-2F31-408A-B330-FD5BCB1ADC56}"/>
-    <hyperlink ref="F15" r:id="rId19" xr:uid="{02B071DF-76FE-4071-B768-3DE788F6CBE2}"/>
+    <hyperlink ref="F30" r:id="rId16" xr:uid="{8BF0E553-900D-4BB1-B841-8A74CD9F4234}"/>
+    <hyperlink ref="F31" r:id="rId17" xr:uid="{7A27F3FC-2F31-408A-B330-FD5BCB1ADC56}"/>
+    <hyperlink ref="F15" r:id="rId18" xr:uid="{02B071DF-76FE-4071-B768-3DE788F6CBE2}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{9E8150CD-82EC-49FF-8F09-E6D102347D85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>

--- a/Sensor_Node/Sensor_Boards/Sensor_Board_0x07_Heat_Flux_v2/BOM_Sensor_Board_0x07_Heat_Flux_v2.xlsx
+++ b/Sensor_Node/Sensor_Boards/Sensor_Board_0x07_Heat_Flux_v2/BOM_Sensor_Board_0x07_Heat_Flux_v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A940DEA-1EDA-4555-9361-D384429B0272}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -97,9 +96,6 @@
     <t xml:space="preserve">MAX31855TASA+-ND </t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/de/maxim-integrated/MAX31855TASA/MAX31855TASA-ND/2754401</t>
-  </si>
-  <si>
     <t>IC4</t>
   </si>
   <si>
@@ -112,9 +108,6 @@
     <t>Ferrite-Core</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/products/de?keywords=%20240-2504-1-ND</t>
-  </si>
-  <si>
     <t>FB1, FB2</t>
   </si>
   <si>
@@ -190,9 +183,6 @@
     <t>Programming Connector</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/en/te-connectivity-amp-connectors/147721-3/A108812CT-ND/4031444</t>
-  </si>
-  <si>
     <t>AMP 4pin connector</t>
   </si>
   <si>
@@ -208,9 +198,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/de/lite-on-inc/LTST-C170CKT/160-1176-1-ND/269248</t>
-  </si>
-  <si>
     <t>Resistor 330</t>
   </si>
   <si>
@@ -227,12 +214,30 @@
   </si>
   <si>
     <t>https://www.digikey.ch/short/39mz0t</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/short/j5mmww</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/short/j5mmnt</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/short/j5mmnq</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/short/j5mmnw</t>
+  </si>
+  <si>
+    <t>Dide array (second source)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/short/j5mmwt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$CHF]\ #,##0.00"/>
   </numFmts>
@@ -386,8 +391,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,30 +669,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -707,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -717,7 +722,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -738,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -759,7 +764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -780,9 +785,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -801,9 +806,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -822,7 +827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
@@ -832,9 +837,9 @@
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -853,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -863,12 +868,12 @@
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -881,15 +886,15 @@
         <v>4.57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -905,12 +910,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -926,12 +931,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -944,12 +949,12 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -957,12 +962,12 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -975,15 +980,15 @@
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -992,19 +997,19 @@
         <v>0.1</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18:E21" si="2">C18*D18</f>
+        <f t="shared" ref="E18:E22" si="2">C18*D18</f>
         <v>0.5</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -1020,255 +1025,277 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
         <v>0.25</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>0.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>0.5</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="4">
+        <f>C24*D24</f>
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ref="E25:E27" si="3">C25*D25</f>
+        <v>0.32</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="4">
-        <f>C23*D23</f>
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" ref="E24:E26" si="3">C24*D24</f>
-        <v>0.32</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
         <v>0.7</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
         <v>0.38</v>
-      </c>
-      <c r="E30" s="4">
-        <f>D30*C30</f>
-        <v>0.38</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.1</v>
       </c>
       <c r="E31" s="4">
         <f>D31*C31</f>
+        <v>0.38</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
         <v>0.1</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="12">
-        <f>SUM(E4:E8)+E10+SUM(E12:E15)+SUM(E17:E21)+SUM(E23:E24)+SUM(E30:E31)+E26+E28</f>
-        <v>14.680000000000001</v>
+      <c r="E32" s="4">
+        <f>D32*C32</f>
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="12">
+        <f>SUM(E4:E8)+E10+SUM(E12:E15)+SUM(E17:E22)+SUM(E24:E25)+SUM(E31:E32)+E27+E29</f>
+        <v>14.57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{3BF98B30-7DED-491B-AD74-4B7A544F7F19}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{866B065C-6AAB-4347-98A4-5C3AA16F138A}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{54BDFB25-BE1E-4E21-BA92-9988858C7AF2}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{9DC3478E-952C-497D-ACC7-4FBCB9E2819A}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{93D5671B-9440-4336-A496-F71751969C09}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{C5C80B58-2307-4F3E-B448-225ABF1B0488}"/>
-    <hyperlink ref="F12" r:id="rId7" xr:uid="{341E5086-1468-4DBA-A142-D59E0D0E0910}"/>
-    <hyperlink ref="F13" r:id="rId8" xr:uid="{6B9C2520-A1AA-423B-BD36-52F97648D07E}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{C5393B10-3550-46C2-939B-730BB0654FCB}"/>
-    <hyperlink ref="F17" r:id="rId10" xr:uid="{B111B8AA-A605-432B-81D0-D0DEF5CC4431}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{F728236C-F964-4F03-9185-5A0BE11E7B67}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{86719133-4DA9-4F80-8242-BEA36DD27AED}"/>
-    <hyperlink ref="F21" r:id="rId13" xr:uid="{307116BC-6DDD-4921-B9E9-87EF456DF22B}"/>
-    <hyperlink ref="F23" r:id="rId14" xr:uid="{BFD02D98-3E83-4C23-B6F8-CD959AACFEC0}"/>
-    <hyperlink ref="F24" r:id="rId15" xr:uid="{04AB51B2-C925-40D0-AED0-905164E40FF4}"/>
-    <hyperlink ref="F30" r:id="rId16" xr:uid="{8BF0E553-900D-4BB1-B841-8A74CD9F4234}"/>
-    <hyperlink ref="F31" r:id="rId17" xr:uid="{7A27F3FC-2F31-408A-B330-FD5BCB1ADC56}"/>
-    <hyperlink ref="F15" r:id="rId18" xr:uid="{02B071DF-76FE-4071-B768-3DE788F6CBE2}"/>
-    <hyperlink ref="F28" r:id="rId19" xr:uid="{9E8150CD-82EC-49FF-8F09-E6D102347D85}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F13" r:id="rId7"/>
+    <hyperlink ref="F14" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9"/>
+    <hyperlink ref="F18" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F22" r:id="rId12"/>
+    <hyperlink ref="F24" r:id="rId13"/>
+    <hyperlink ref="F25" r:id="rId14"/>
+    <hyperlink ref="F32" r:id="rId15"/>
+    <hyperlink ref="F29" r:id="rId16"/>
+    <hyperlink ref="F20" r:id="rId17"/>
+    <hyperlink ref="F12" r:id="rId18"/>
+    <hyperlink ref="F15" r:id="rId19"/>
+    <hyperlink ref="F27" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>